--- a/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation_PreProd.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation_PreProd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="52">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation_PreProd.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation_PreProd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="52">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation_PreProd.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/CrudOperation_PreProd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="52">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
